--- a/Config/Sound.xlsx
+++ b/Config/Sound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8759CE9-232F-4B4A-B1F2-7EB5A94DF164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0038A1AF-8EEE-4723-957B-8BE8A7A831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-2340" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -141,6 +141,38 @@
   </si>
   <si>
     <t>0~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2000开始是技能音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑出生点音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenFlySword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sfx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlySwordFly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlySwordHit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -627,10 +659,96 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>12001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>12002</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>12003</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
     </row>
